--- a/Corp Registers_.xlsx
+++ b/Corp Registers_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\book-keeping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A549EA-37A6-4730-8D92-3B09D5721405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B58E08-1EE4-40EF-883D-2FFDC7E943BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="2190" windowWidth="56430" windowHeight="14655" tabRatio="791" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19410" yWindow="0" windowWidth="25980" windowHeight="14655" tabRatio="791" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information to Provide to TA" sheetId="1" state="hidden" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="150">
   <si>
     <t>The following is a list of the information that you will need to send Traders Accounting Monthly</t>
   </si>
@@ -459,15 +459,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual Home Office Usage </t>
-  </si>
-  <si>
-    <t>Standard Deduction Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ONLINE TRANSFER TO CHK ...0639 TRANSACTION#: 21224542831 06/27</t>
   </si>
   <si>
     <t>Other Income and Expense</t>
@@ -513,14 +504,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -632,12 +622,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF414042"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -866,7 +850,7 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1022,7 +1006,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1051,7 +1034,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3014,8 +2996,8 @@
   <cols>
     <col min="1" max="1" width="18" style="62" customWidth="1"/>
     <col min="2" max="2" width="80" style="60" customWidth="1"/>
-    <col min="3" max="3" width="10" style="74" customWidth="1"/>
-    <col min="4" max="4" width="63" style="73" customWidth="1"/>
+    <col min="3" max="3" width="10" style="73" customWidth="1"/>
+    <col min="4" max="4" width="63" style="72" customWidth="1"/>
     <col min="5" max="5" width="54" style="60" customWidth="1"/>
     <col min="6" max="23" width="2" style="60" customWidth="1"/>
     <col min="24" max="24" width="63" style="60" customWidth="1"/>
@@ -3101,10 +3083,10 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="75">
         <v>45474</v>
       </c>
       <c r="D9" s="25"/>
@@ -3131,7 +3113,7 @@
         <v>92</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="57"/>
       <c r="E11" s="33"/>
       <c r="X11" s="30" t="s">
@@ -3154,7 +3136,7 @@
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
       <c r="B13" s="61"/>
-      <c r="C13" s="78"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="58"/>
       <c r="E13" s="23"/>
       <c r="X13" s="30" t="s">
@@ -3171,7 +3153,7 @@
       <c r="B14" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="78" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="59" t="s">
@@ -3732,7 +3714,7 @@
   </sheetPr>
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -3817,7 +3799,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="41">
@@ -3853,21 +3835,21 @@
         <v>98</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K12" s="60"/>
       <c r="M12" s="34" t="s">
         <v>98</v>
       </c>
       <c r="N12" s="55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O12" s="60"/>
       <c r="Q12" s="34" t="s">
         <v>98</v>
       </c>
       <c r="R12" s="55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S12" s="60"/>
     </row>
@@ -4264,112 +4246,112 @@
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
-      <c r="B88" s="82"/>
+      <c r="B88" s="81"/>
       <c r="C88" s="54"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
-      <c r="B89" s="82"/>
+      <c r="B89" s="81"/>
       <c r="C89" s="54"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
-      <c r="B90" s="82"/>
+      <c r="B90" s="81"/>
       <c r="C90" s="54"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
-      <c r="B91" s="82"/>
+      <c r="B91" s="81"/>
       <c r="C91" s="70"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
-      <c r="B92" s="82"/>
+      <c r="B92" s="81"/>
       <c r="C92" s="70"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
-      <c r="B93" s="82"/>
+      <c r="B93" s="81"/>
       <c r="C93" s="70"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
-      <c r="B94" s="82"/>
+      <c r="B94" s="81"/>
       <c r="C94" s="70"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
-      <c r="B95" s="82"/>
+      <c r="B95" s="81"/>
       <c r="C95" s="54"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
-      <c r="B96" s="82"/>
+      <c r="B96" s="81"/>
       <c r="C96" s="54"/>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
-      <c r="B97" s="82"/>
+      <c r="B97" s="81"/>
       <c r="C97" s="70"/>
     </row>
     <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
-      <c r="B98" s="82"/>
+      <c r="B98" s="81"/>
       <c r="C98" s="54"/>
     </row>
     <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
-      <c r="B99" s="82"/>
+      <c r="B99" s="81"/>
       <c r="C99" s="70"/>
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
-      <c r="B100" s="82"/>
+      <c r="B100" s="81"/>
       <c r="C100" s="70"/>
     </row>
     <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
-      <c r="B101" s="82"/>
+      <c r="B101" s="81"/>
       <c r="C101" s="54"/>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
-      <c r="B102" s="82"/>
+      <c r="B102" s="81"/>
       <c r="C102" s="54"/>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
-      <c r="B103" s="82"/>
+      <c r="B103" s="81"/>
       <c r="C103" s="54"/>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
-      <c r="B104" s="82"/>
+      <c r="B104" s="81"/>
       <c r="C104" s="54"/>
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
-      <c r="B105" s="82"/>
+      <c r="B105" s="81"/>
       <c r="C105" s="54"/>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
-      <c r="B106" s="82"/>
+      <c r="B106" s="81"/>
       <c r="C106" s="54"/>
     </row>
     <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
-      <c r="B107" s="82"/>
+      <c r="B107" s="81"/>
       <c r="C107" s="54"/>
     </row>
     <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
-      <c r="B108" s="82"/>
+      <c r="B108" s="81"/>
       <c r="C108" s="54"/>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
-      <c r="B109" s="82"/>
+      <c r="B109" s="81"/>
       <c r="C109" s="70"/>
     </row>
   </sheetData>
@@ -4427,7 +4409,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="41">
@@ -4516,39 +4498,39 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
-      <c r="B26" s="81"/>
+      <c r="B26" s="80"/>
       <c r="D26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
-      <c r="B27" s="81"/>
-    </row>
-    <row r="28" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
+      <c r="B27" s="80"/>
+    </row>
+    <row r="28" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
-      <c r="B29" s="83"/>
+      <c r="B29" s="82"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
-      <c r="B30" s="81"/>
+      <c r="B30" s="80"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
-      <c r="B31" s="81"/>
+      <c r="B31" s="80"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
-      <c r="B32" s="81"/>
+      <c r="B32" s="80"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
-      <c r="B33" s="81"/>
+      <c r="B33" s="80"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="42"/>
@@ -4577,10 +4559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A7:I59"/>
+  <dimension ref="A7:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4611,7 +4593,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="41">
@@ -4745,74 +4727,45 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="81"/>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="80"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="81"/>
-      <c r="F50" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="84">
-        <v>1200</v>
-      </c>
-      <c r="B51" s="81"/>
+      <c r="D50" s="80"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="80"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51">
-        <f>C31*I51</f>
-        <v>1200</v>
-      </c>
-      <c r="I51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="81"/>
+      <c r="D51" s="80"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="80"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="81"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="81"/>
+      <c r="D52" s="80"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="80"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="81"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="81"/>
+      <c r="D53" s="80"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="80"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="81"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="81"/>
+      <c r="D54" s="80"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="80"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="81"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="81"/>
+      <c r="D55" s="80"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="80"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="81"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="81"/>
+      <c r="D56" s="80"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="80"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="81"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="81"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="81"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="81"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="81"/>
+      <c r="D57" s="80"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4832,7 +4785,7 @@
   </sheetPr>
   <dimension ref="A7:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -4874,7 +4827,7 @@
     <row r="11" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -4899,13 +4852,13 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>95</v>
@@ -4917,14 +4870,14 @@
       </c>
       <c r="B17" s="18"/>
       <c r="F17" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
       <c r="F18" s="54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G18" s="18"/>
     </row>
@@ -4946,14 +4899,14 @@
     </row>
     <row r="23" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B23" s="20">
         <f>SUM(B17:B21)</f>
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G23" s="20">
         <f>SUM(G17:G21)</f>
@@ -4963,7 +4916,7 @@
     <row r="24" spans="1:15" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -4979,7 +4932,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -4998,7 +4951,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -5017,7 +4970,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>

--- a/Corp Registers_.xlsx
+++ b/Corp Registers_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\book-keeping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B58E08-1EE4-40EF-883D-2FFDC7E943BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B3FFFC-1366-4519-9648-331ADA75169F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="0" windowWidth="25980" windowHeight="14655" tabRatio="791" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12975" yWindow="825" windowWidth="27960" windowHeight="14655" tabRatio="791" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information to Provide to TA" sheetId="1" state="hidden" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="150">
   <si>
     <t>The following is a list of the information that you will need to send Traders Accounting Monthly</t>
   </si>
@@ -510,7 +510,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -595,13 +595,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
@@ -840,17 +833,17 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -925,9 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1032,7 +1022,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2211,9 +2201,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="60" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="60" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="60" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="59" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="59" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2374,12 +2364,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2572,7 +2562,7 @@
       <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
@@ -2581,7 +2571,7 @@
       <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
@@ -2590,7 +2580,7 @@
       <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
@@ -2994,23 +2984,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="62" customWidth="1"/>
-    <col min="2" max="2" width="80" style="60" customWidth="1"/>
-    <col min="3" max="3" width="10" style="73" customWidth="1"/>
-    <col min="4" max="4" width="63" style="72" customWidth="1"/>
-    <col min="5" max="5" width="54" style="60" customWidth="1"/>
-    <col min="6" max="23" width="2" style="60" customWidth="1"/>
-    <col min="24" max="24" width="63" style="60" customWidth="1"/>
-    <col min="25" max="25" width="2" style="60" customWidth="1"/>
-    <col min="26" max="26" width="63" style="68" customWidth="1"/>
-    <col min="27" max="40" width="2" style="60" customWidth="1"/>
+    <col min="1" max="1" width="18" style="61" customWidth="1"/>
+    <col min="2" max="2" width="80" style="59" customWidth="1"/>
+    <col min="3" max="3" width="10" style="72" customWidth="1"/>
+    <col min="4" max="4" width="63" style="71" customWidth="1"/>
+    <col min="5" max="5" width="54" style="59" customWidth="1"/>
+    <col min="6" max="23" width="2" style="59" customWidth="1"/>
+    <col min="24" max="24" width="63" style="59" customWidth="1"/>
+    <col min="25" max="25" width="2" style="59" customWidth="1"/>
+    <col min="26" max="26" width="63" style="67" customWidth="1"/>
+    <col min="27" max="40" width="2" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="X1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="67" t="s">
+      <c r="Z1" s="66" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3018,7 +3008,7 @@
       <c r="X2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="67" t="s">
+      <c r="Z2" s="66" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3026,7 +3016,7 @@
       <c r="X3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="67" t="s">
+      <c r="Z3" s="66" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3034,7 +3024,7 @@
       <c r="X4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="67" t="s">
+      <c r="Z4" s="66" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3042,7 +3032,7 @@
       <c r="X5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="67" t="s">
+      <c r="Z5" s="66" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3050,12 +3040,12 @@
       <c r="X6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="67" t="s">
+      <c r="Z6" s="66" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B7" t="s">
@@ -3064,12 +3054,12 @@
       <c r="X7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Z7" s="67" t="s">
+      <c r="Z7" s="66" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B8" t="s">
@@ -3078,71 +3068,71 @@
       <c r="X8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Z8" s="67" t="s">
+      <c r="Z8" s="66" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <v>45474</v>
       </c>
       <c r="D9" s="25"/>
       <c r="X9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Z9" s="67" t="s">
+      <c r="Z9" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>91</v>
       </c>
       <c r="X10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" s="67" t="s">
+      <c r="Z10" s="66" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="63" t="s">
         <v>92</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="33"/>
       <c r="X11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="67" t="s">
+      <c r="Z11" s="66" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="3"/>
       <c r="X12" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="Z12" s="67" t="s">
+      <c r="Z12" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="58"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="23"/>
       <c r="X13" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="Z13" s="67" t="s">
+      <c r="Z13" s="66" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3150,13 +3140,13 @@
       <c r="A14" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -3165,16 +3155,16 @@
       <c r="X14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="67" t="s">
+      <c r="Z14" s="66" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="P15" s="68"/>
-      <c r="Z15" s="60"/>
+      <c r="A15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="P15" s="67"/>
+      <c r="Z15" s="59"/>
       <c r="AE15"/>
       <c r="AF15"/>
       <c r="AG15"/>
@@ -3187,11 +3177,11 @@
       <c r="AN15"/>
     </row>
     <row r="16" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="P16" s="68"/>
-      <c r="Z16" s="60"/>
+      <c r="A16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="P16" s="67"/>
+      <c r="Z16" s="59"/>
       <c r="AE16"/>
       <c r="AF16"/>
       <c r="AG16"/>
@@ -3204,11 +3194,11 @@
       <c r="AN16"/>
     </row>
     <row r="17" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="P17" s="68"/>
-      <c r="Z17" s="60"/>
+      <c r="A17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="P17" s="67"/>
+      <c r="Z17" s="59"/>
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
@@ -3221,11 +3211,11 @@
       <c r="AN17"/>
     </row>
     <row r="18" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="P18" s="68"/>
-      <c r="Z18" s="60"/>
+      <c r="A18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="P18" s="67"/>
+      <c r="Z18" s="59"/>
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
@@ -3238,11 +3228,11 @@
       <c r="AN18"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="P19" s="68"/>
-      <c r="Z19" s="60"/>
+      <c r="A19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="P19" s="67"/>
+      <c r="Z19" s="59"/>
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19"/>
@@ -3255,11 +3245,11 @@
       <c r="AN19"/>
     </row>
     <row r="20" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="P20" s="68"/>
-      <c r="Z20" s="60"/>
+      <c r="A20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="P20" s="67"/>
+      <c r="Z20" s="59"/>
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20"/>
@@ -3272,11 +3262,11 @@
       <c r="AN20"/>
     </row>
     <row r="21" spans="1:40" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="U21" s="68"/>
-      <c r="Z21" s="60"/>
+      <c r="A21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="U21" s="67"/>
+      <c r="Z21" s="59"/>
       <c r="AJ21"/>
       <c r="AK21"/>
       <c r="AL21"/>
@@ -3284,11 +3274,11 @@
       <c r="AN21"/>
     </row>
     <row r="22" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="U22" s="68"/>
-      <c r="Z22" s="60"/>
+      <c r="A22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="U22" s="67"/>
+      <c r="Z22" s="59"/>
       <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
@@ -3296,11 +3286,11 @@
       <c r="AN22"/>
     </row>
     <row r="23" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="U23" s="68"/>
-      <c r="Z23" s="60"/>
+      <c r="A23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="U23" s="67"/>
+      <c r="Z23" s="59"/>
       <c r="AJ23"/>
       <c r="AK23"/>
       <c r="AL23"/>
@@ -3308,11 +3298,11 @@
       <c r="AN23"/>
     </row>
     <row r="24" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="U24" s="68"/>
-      <c r="Z24" s="60"/>
+      <c r="A24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="U24" s="67"/>
+      <c r="Z24" s="59"/>
       <c r="AJ24"/>
       <c r="AK24"/>
       <c r="AL24"/>
@@ -3320,11 +3310,11 @@
       <c r="AN24"/>
     </row>
     <row r="25" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="U25" s="68"/>
-      <c r="Z25" s="60"/>
+      <c r="A25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="U25" s="67"/>
+      <c r="Z25" s="59"/>
       <c r="AJ25"/>
       <c r="AK25"/>
       <c r="AL25"/>
@@ -3332,11 +3322,11 @@
       <c r="AN25"/>
     </row>
     <row r="26" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="U26" s="68"/>
-      <c r="Z26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="U26" s="67"/>
+      <c r="Z26" s="59"/>
       <c r="AJ26"/>
       <c r="AK26"/>
       <c r="AL26"/>
@@ -3344,11 +3334,11 @@
       <c r="AN26"/>
     </row>
     <row r="27" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="U27" s="68"/>
-      <c r="Z27" s="60"/>
+      <c r="A27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="U27" s="67"/>
+      <c r="Z27" s="59"/>
       <c r="AJ27"/>
       <c r="AK27"/>
       <c r="AL27"/>
@@ -3356,11 +3346,11 @@
       <c r="AN27"/>
     </row>
     <row r="28" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="U28" s="68"/>
-      <c r="Z28" s="60"/>
+      <c r="A28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="U28" s="67"/>
+      <c r="Z28" s="59"/>
       <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28"/>
@@ -3368,11 +3358,11 @@
       <c r="AN28"/>
     </row>
     <row r="29" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="U29" s="68"/>
-      <c r="Z29" s="60"/>
+      <c r="A29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="U29" s="67"/>
+      <c r="Z29" s="59"/>
       <c r="AJ29"/>
       <c r="AK29"/>
       <c r="AL29"/>
@@ -3380,11 +3370,11 @@
       <c r="AN29"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="U30" s="68"/>
-      <c r="Z30" s="60"/>
+      <c r="A30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="U30" s="67"/>
+      <c r="Z30" s="59"/>
       <c r="AJ30"/>
       <c r="AK30"/>
       <c r="AL30"/>
@@ -3392,11 +3382,11 @@
       <c r="AN30"/>
     </row>
     <row r="31" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="U31" s="68"/>
-      <c r="Z31" s="60"/>
+      <c r="A31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="U31" s="67"/>
+      <c r="Z31" s="59"/>
       <c r="AJ31"/>
       <c r="AK31"/>
       <c r="AL31"/>
@@ -3404,11 +3394,11 @@
       <c r="AN31"/>
     </row>
     <row r="32" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="U32" s="68"/>
-      <c r="Z32" s="60"/>
+      <c r="A32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="U32" s="67"/>
+      <c r="Z32" s="59"/>
       <c r="AJ32"/>
       <c r="AK32"/>
       <c r="AL32"/>
@@ -3416,11 +3406,11 @@
       <c r="AN32"/>
     </row>
     <row r="33" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="U33" s="68"/>
-      <c r="Z33" s="60"/>
+      <c r="A33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="U33" s="67"/>
+      <c r="Z33" s="59"/>
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33"/>
@@ -3428,11 +3418,11 @@
       <c r="AN33"/>
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="U34" s="68"/>
-      <c r="Z34" s="60"/>
+      <c r="A34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="U34" s="67"/>
+      <c r="Z34" s="59"/>
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34"/>
@@ -3440,11 +3430,11 @@
       <c r="AN34"/>
     </row>
     <row r="35" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="U35" s="68"/>
-      <c r="Z35" s="60"/>
+      <c r="A35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="U35" s="67"/>
+      <c r="Z35" s="59"/>
       <c r="AJ35"/>
       <c r="AK35"/>
       <c r="AL35"/>
@@ -3452,11 +3442,11 @@
       <c r="AN35"/>
     </row>
     <row r="36" spans="1:40" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="U36" s="68"/>
-      <c r="Z36" s="60"/>
+      <c r="A36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="U36" s="67"/>
+      <c r="Z36" s="59"/>
       <c r="AJ36"/>
       <c r="AK36"/>
       <c r="AL36"/>
@@ -3464,11 +3454,11 @@
       <c r="AN36"/>
     </row>
     <row r="37" spans="1:40" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="U37" s="68"/>
-      <c r="Z37" s="60"/>
+      <c r="A37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="U37" s="67"/>
+      <c r="Z37" s="59"/>
       <c r="AJ37"/>
       <c r="AK37"/>
       <c r="AL37"/>
@@ -3476,11 +3466,11 @@
       <c r="AN37"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="U38" s="68"/>
-      <c r="Z38" s="60"/>
+      <c r="A38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="U38" s="67"/>
+      <c r="Z38" s="59"/>
       <c r="AJ38"/>
       <c r="AK38"/>
       <c r="AL38"/>
@@ -3488,11 +3478,11 @@
       <c r="AN38"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="U39" s="68"/>
-      <c r="Z39" s="60"/>
+      <c r="A39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="U39" s="67"/>
+      <c r="Z39" s="59"/>
       <c r="AJ39"/>
       <c r="AK39"/>
       <c r="AL39"/>
@@ -3500,11 +3490,11 @@
       <c r="AN39"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="U40" s="68"/>
-      <c r="Z40" s="60"/>
+      <c r="A40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="U40" s="67"/>
+      <c r="Z40" s="59"/>
       <c r="AJ40"/>
       <c r="AK40"/>
       <c r="AL40"/>
@@ -3512,11 +3502,11 @@
       <c r="AN40"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="U41" s="68"/>
-      <c r="Z41" s="60"/>
+      <c r="A41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="U41" s="67"/>
+      <c r="Z41" s="59"/>
       <c r="AJ41"/>
       <c r="AK41"/>
       <c r="AL41"/>
@@ -3524,11 +3514,11 @@
       <c r="AN41"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="U42" s="68"/>
-      <c r="Z42" s="60"/>
+      <c r="A42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="U42" s="67"/>
+      <c r="Z42" s="59"/>
       <c r="AJ42"/>
       <c r="AK42"/>
       <c r="AL42"/>
@@ -3536,11 +3526,11 @@
       <c r="AN42"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="U43" s="68"/>
-      <c r="Z43" s="60"/>
+      <c r="A43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="U43" s="67"/>
+      <c r="Z43" s="59"/>
       <c r="AJ43"/>
       <c r="AK43"/>
       <c r="AL43"/>
@@ -3548,11 +3538,11 @@
       <c r="AN43"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="U44" s="68"/>
-      <c r="Z44" s="60"/>
+      <c r="A44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="U44" s="67"/>
+      <c r="Z44" s="59"/>
       <c r="AJ44"/>
       <c r="AK44"/>
       <c r="AL44"/>
@@ -3560,11 +3550,11 @@
       <c r="AN44"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="U45" s="68"/>
-      <c r="Z45" s="60"/>
+      <c r="A45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="U45" s="67"/>
+      <c r="Z45" s="59"/>
       <c r="AJ45"/>
       <c r="AK45"/>
       <c r="AL45"/>
@@ -3572,11 +3562,11 @@
       <c r="AN45"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="U46" s="68"/>
-      <c r="Z46" s="60"/>
+      <c r="A46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="U46" s="67"/>
+      <c r="Z46" s="59"/>
       <c r="AJ46"/>
       <c r="AK46"/>
       <c r="AL46"/>
@@ -3584,11 +3574,11 @@
       <c r="AN46"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="U47" s="68"/>
-      <c r="Z47" s="60"/>
+      <c r="A47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="U47" s="67"/>
+      <c r="Z47" s="59"/>
       <c r="AJ47"/>
       <c r="AK47"/>
       <c r="AL47"/>
@@ -3596,11 +3586,11 @@
       <c r="AN47"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="U48" s="68"/>
-      <c r="Z48" s="60"/>
+      <c r="A48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="U48" s="67"/>
+      <c r="Z48" s="59"/>
       <c r="AJ48"/>
       <c r="AK48"/>
       <c r="AL48"/>
@@ -3608,11 +3598,11 @@
       <c r="AN48"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="U49" s="68"/>
-      <c r="Z49" s="60"/>
+      <c r="A49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="U49" s="67"/>
+      <c r="Z49" s="59"/>
       <c r="AJ49"/>
       <c r="AK49"/>
       <c r="AL49"/>
@@ -3620,11 +3610,11 @@
       <c r="AN49"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="U50" s="68"/>
-      <c r="Z50" s="60"/>
+      <c r="A50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="U50" s="67"/>
+      <c r="Z50" s="59"/>
       <c r="AJ50"/>
       <c r="AK50"/>
       <c r="AL50"/>
@@ -3632,11 +3622,11 @@
       <c r="AN50"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="U51" s="68"/>
-      <c r="Z51" s="60"/>
+      <c r="A51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="U51" s="67"/>
+      <c r="Z51" s="59"/>
       <c r="AJ51"/>
       <c r="AK51"/>
       <c r="AL51"/>
@@ -3644,11 +3634,11 @@
       <c r="AN51"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="U52" s="68"/>
-      <c r="Z52" s="60"/>
+      <c r="A52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="U52" s="67"/>
+      <c r="Z52" s="59"/>
       <c r="AJ52"/>
       <c r="AK52"/>
       <c r="AL52"/>
@@ -3656,11 +3646,11 @@
       <c r="AN52"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="U53" s="68"/>
-      <c r="Z53" s="60"/>
+      <c r="A53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="U53" s="67"/>
+      <c r="Z53" s="59"/>
       <c r="AJ53"/>
       <c r="AK53"/>
       <c r="AL53"/>
@@ -3668,11 +3658,11 @@
       <c r="AN53"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="U54" s="68"/>
-      <c r="Z54" s="60"/>
+      <c r="A54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="U54" s="67"/>
+      <c r="Z54" s="59"/>
       <c r="AJ54"/>
       <c r="AK54"/>
       <c r="AL54"/>
@@ -3680,11 +3670,11 @@
       <c r="AN54"/>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="U55" s="68"/>
-      <c r="Z55" s="60"/>
+      <c r="A55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="U55" s="67"/>
+      <c r="Z55" s="59"/>
       <c r="AJ55"/>
       <c r="AK55"/>
       <c r="AL55"/>
@@ -3714,19 +3704,19 @@
   </sheetPr>
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="60" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="78.140625" style="60" customWidth="1"/>
+    <col min="1" max="1" width="23" style="59" customWidth="1"/>
+    <col min="2" max="2" width="17" style="39" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="59" customWidth="1"/>
+    <col min="7" max="7" width="78.140625" style="59" customWidth="1"/>
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
     <col min="11" max="11" width="71.28515625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
@@ -3778,7 +3768,7 @@
       <c r="A8" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="40" t="str">
+      <c r="B8" s="39" t="str">
         <f>'Check Register-Corp'!B7</f>
         <v>Cyrus Capital Inc.</v>
       </c>
@@ -3790,7 +3780,7 @@
       <c r="A9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="40" t="str">
+      <c r="B9" s="39" t="str">
         <f>'Check Register-Corp'!B8</f>
         <v>Ting Wang</v>
       </c>
@@ -3799,10 +3789,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <f>'Check Register-Corp'!$B$9</f>
         <v>45474</v>
       </c>
@@ -3819,13 +3809,13 @@
       <c r="A12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>99</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>100</v>
       </c>
       <c r="H12" s="30" t="s">
@@ -3834,24 +3824,24 @@
       <c r="I12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="59"/>
       <c r="M12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="55" t="s">
+      <c r="N12" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="O12" s="60"/>
+      <c r="O12" s="59"/>
       <c r="Q12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="R12" s="55" t="s">
+      <c r="R12" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="S12" s="60"/>
+      <c r="S12" s="59"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
@@ -3863,18 +3853,18 @@
       <c r="H13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
       <c r="K13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="54"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="54"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="53"/>
       <c r="S13" s="15" t="s">
         <v>101</v>
       </c>
@@ -3883,65 +3873,65 @@
       <c r="A14" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="33"/>
       <c r="E14" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="33"/>
       <c r="I14" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="33"/>
       <c r="M14" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="50"/>
+      <c r="N14" s="49"/>
       <c r="O14" s="33"/>
       <c r="Q14" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="R14" s="50"/>
+      <c r="R14" s="49"/>
       <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="3"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
-      <c r="B16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="52"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="23"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="52"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="23"/>
       <c r="M16" s="23"/>
-      <c r="N16" s="52"/>
+      <c r="N16" s="51"/>
       <c r="O16" s="23"/>
       <c r="Q16" s="23"/>
-      <c r="R16" s="52"/>
+      <c r="R16" s="51"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:19" s="62" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="61" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -3950,7 +3940,7 @@
       <c r="E17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="52" t="s">
         <v>95</v>
       </c>
       <c r="G17" s="17" t="s">
@@ -3959,7 +3949,7 @@
       <c r="I17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="52" t="s">
         <v>95</v>
       </c>
       <c r="K17" s="17" t="s">
@@ -3968,7 +3958,7 @@
       <c r="M17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="52" t="s">
         <v>95</v>
       </c>
       <c r="O17" s="17" t="s">
@@ -3977,7 +3967,7 @@
       <c r="Q17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R17" s="53" t="s">
+      <c r="R17" s="52" t="s">
         <v>95</v>
       </c>
       <c r="S17" s="17" t="s">
@@ -3987,9 +3977,7 @@
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" s="30" t="s">
-        <v>64</v>
-      </c>
+      <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -3998,9 +3986,7 @@
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19" s="30" t="s">
-        <v>65</v>
-      </c>
+      <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -4009,9 +3995,7 @@
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -4020,9 +4004,7 @@
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="30" t="s">
-        <v>68</v>
-      </c>
+      <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -4031,9 +4013,7 @@
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -4042,9 +4022,7 @@
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4053,9 +4031,7 @@
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="C24" s="30" t="s">
-        <v>68</v>
-      </c>
+      <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -4165,201 +4141,173 @@
     <row r="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
+    <row r="65" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="53"/>
+    </row>
+    <row r="80" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="53"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="53"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="69"/>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="69"/>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="69"/>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="69"/>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="53"/>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="53"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
-      <c r="B88" s="81"/>
-      <c r="C88" s="54"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="69"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
-      <c r="B89" s="81"/>
-      <c r="C89" s="54"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="53"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="81"/>
-      <c r="C90" s="54"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="69"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
-      <c r="B91" s="81"/>
-      <c r="C91" s="70"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="69"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="70"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="53"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="81"/>
-      <c r="C93" s="70"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="53"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="70"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="53"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
-      <c r="B95" s="81"/>
-      <c r="C95" s="54"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="53"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="54"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="53"/>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="81"/>
-      <c r="C97" s="70"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="53"/>
     </row>
     <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="54"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="53"/>
     </row>
     <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="81"/>
-      <c r="C99" s="70"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="53"/>
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="70"/>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="54"/>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="54"/>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="54"/>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="54"/>
-    </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="54"/>
-    </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="54"/>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="54"/>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="54"/>
-    </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="81"/>
-      <c r="C109" s="70"/>
-    </row>
+      <c r="A100" s="38"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="69"/>
+    </row>
+    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please select am expense type from the list below" promptTitle="Expense Categories" prompt="Please select an expense type from the list below" sqref="C11 C88:C542" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please select am expense type from the list below" promptTitle="Expense Categories" prompt="Please select an expense type from the list below" sqref="C11 C79:C533" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Expenses</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expenses" error="Please select an expense catagory" promptTitle="Expenses" prompt="Please select an expense catagory" sqref="H12:H13 L6:L11 N5 C18:C24" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expenses" error="Please select an expense catagory" promptTitle="Expenses" prompt="Please select an expense catagory" sqref="H12:H13 L6:L11 N5" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Expenses"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4383,11 +4331,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="60" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="60" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="70.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4409,10 +4357,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <f>'Check Register-Corp'!B9</f>
         <v>45474</v>
       </c>
@@ -4423,9 +4371,9 @@
         <v>103</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="43"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="43"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4443,7 +4391,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4458,7 +4406,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="53" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4470,16 +4418,16 @@
     <row r="23" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="45"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="47"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -4488,55 +4436,55 @@
       <c r="B25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>113</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="80"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="79"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="80"/>
-    </row>
-    <row r="28" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="49"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="79"/>
+    </row>
+    <row r="28" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="48"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="79"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="79"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="80"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="79"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="80"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="79"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="41"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
+      <c r="A35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4567,11 +4515,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="60" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="15" style="60" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="60" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="15" style="59" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4593,10 +4541,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <f>'Check Register-Corp'!B9</f>
         <v>45474</v>
       </c>
@@ -4728,44 +4676,44 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="80"/>
+      <c r="B50" s="79"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="80"/>
+      <c r="D50" s="79"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="80"/>
+      <c r="B51" s="79"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="80"/>
+      <c r="D51" s="79"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="80"/>
+      <c r="B52" s="79"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="80"/>
+      <c r="D52" s="79"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="80"/>
+      <c r="B53" s="79"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="80"/>
+      <c r="D53" s="79"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="80"/>
+      <c r="B54" s="79"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="80"/>
+      <c r="D54" s="79"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="80"/>
+      <c r="B55" s="79"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="80"/>
+      <c r="D55" s="79"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="80"/>
+      <c r="B56" s="79"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="80"/>
+      <c r="D56" s="79"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="80"/>
+      <c r="B57" s="79"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="80"/>
+      <c r="D57" s="79"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4785,16 +4733,16 @@
   </sheetPr>
   <dimension ref="A7:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="60" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="60" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="59" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -4819,7 +4767,7 @@
       <c r="A9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <f>'Check Register-Corp'!B9</f>
         <v>45474</v>
       </c>
@@ -4869,14 +4817,14 @@
         <v>40</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="53" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="53" t="s">
         <v>141</v>
       </c>
       <c r="G18" s="18"/>
